--- a/core/StructureDefinition-KLCommonCitizen.xlsx
+++ b/core/StructureDefinition-KLCommonCitizen.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T16:33:10+02:00</t>
+    <t>2023-06-07T17:51:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
